--- a/6/1/1/3/1/Suscripciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/1/Suscripciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Serie</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -920,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6001,6 +6004,35 @@
         <v>397</v>
       </c>
     </row>
+    <row r="176" spans="1:9">
+      <c r="A176" t="s">
+        <v>183</v>
+      </c>
+      <c r="B176">
+        <v>18554</v>
+      </c>
+      <c r="C176">
+        <v>4426</v>
+      </c>
+      <c r="D176">
+        <v>5691</v>
+      </c>
+      <c r="E176">
+        <v>6202</v>
+      </c>
+      <c r="F176">
+        <v>666</v>
+      </c>
+      <c r="G176">
+        <v>517</v>
+      </c>
+      <c r="H176">
+        <v>901</v>
+      </c>
+      <c r="I176">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/3/1/Suscripciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/1/Suscripciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>Serie</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -923,7 +926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6033,6 +6036,35 @@
         <v>150</v>
       </c>
     </row>
+    <row r="177" spans="1:9">
+      <c r="A177" t="s">
+        <v>184</v>
+      </c>
+      <c r="B177">
+        <v>20022</v>
+      </c>
+      <c r="C177">
+        <v>3849</v>
+      </c>
+      <c r="D177">
+        <v>5834</v>
+      </c>
+      <c r="E177">
+        <v>7315</v>
+      </c>
+      <c r="F177">
+        <v>1368</v>
+      </c>
+      <c r="G177">
+        <v>893</v>
+      </c>
+      <c r="H177">
+        <v>438</v>
+      </c>
+      <c r="I177">
+        <v>324</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/3/1/Suscripciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/1/Suscripciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>Serie</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -926,7 +929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6065,6 +6068,35 @@
         <v>324</v>
       </c>
     </row>
+    <row r="178" spans="1:9">
+      <c r="A178" t="s">
+        <v>185</v>
+      </c>
+      <c r="B178">
+        <v>23186</v>
+      </c>
+      <c r="C178">
+        <v>3472</v>
+      </c>
+      <c r="D178">
+        <v>7671</v>
+      </c>
+      <c r="E178">
+        <v>7153</v>
+      </c>
+      <c r="F178">
+        <v>1843</v>
+      </c>
+      <c r="G178">
+        <v>1096</v>
+      </c>
+      <c r="H178">
+        <v>1545</v>
+      </c>
+      <c r="I178">
+        <v>405</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
